--- a/analysis/pop_estimates.xlsx
+++ b/analysis/pop_estimates.xlsx
@@ -1185,11 +1185,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-69076576"/>
-        <c:axId val="-69075488"/>
+        <c:axId val="-326764480"/>
+        <c:axId val="-326749792"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-69076576"/>
+        <c:axId val="-326764480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,7 +1226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-69075488"/>
+        <c:crossAx val="-326749792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1234,7 +1234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-69075488"/>
+        <c:axId val="-326749792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-69076576"/>
+        <c:crossAx val="-326764480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1896,11 +1896,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="-2079051344"/>
-        <c:axId val="-2079050800"/>
+        <c:axId val="-326752512"/>
+        <c:axId val="-326749248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2079051344"/>
+        <c:axId val="-326752512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1943,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079050800"/>
+        <c:crossAx val="-326749248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1951,7 +1951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079050800"/>
+        <c:axId val="-326749248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,9 +2002,42 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079051344"/>
+        <c:crossAx val="-326752512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3518,8 +3551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
